--- a/results/SMR Results/lmer_ind_effects_m_basin_season.xlsx
+++ b/results/SMR Results/lmer_ind_effects_m_basin_season.xlsx
@@ -459,13 +459,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>3.67623722770202</v>
+        <v>3.67621668768565</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0480254963166842</v>
+        <v>0.0480267495706949</v>
       </c>
       <c r="G2" t="n">
-        <v>76.5476155303134</v>
+        <v>76.5451903480226</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0169143523758244</v>
+        <v>-0.0169087868187037</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0617275184809159</v>
+        <v>0.0617291605640108</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.274016399688152</v>
+        <v>-0.273918949556587</v>
       </c>
       <c r="H3" t="n">
-        <v>0.784072018710073</v>
+        <v>0.784146908703287</v>
       </c>
     </row>
     <row r="4">
@@ -507,16 +507,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00710007013060979</v>
+        <v>0.00711951972884828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0755514265161806</v>
+        <v>0.0755534399777809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0939766521693564</v>
+        <v>0.0942315760995398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.925127703510517</v>
+        <v>0.924925202264404</v>
       </c>
     </row>
     <row r="5">
@@ -531,13 +531,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.266834727889077</v>
+        <v>0.266836921654755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00494773051130262</v>
+        <v>0.00494772599056936</v>
       </c>
       <c r="G5" t="n">
-        <v>53.9307319344735</v>
+        <v>53.9312245996163</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2166220555038</v>
+        <v>0.216622860771198</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00487740496182157</v>
+        <v>0.00487739838447883</v>
       </c>
       <c r="G6" t="n">
-        <v>44.4133831821293</v>
+        <v>44.4136081769636</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.10172611502888</v>
+        <v>-0.101725187320368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00494521707519693</v>
+        <v>0.00494521092520655</v>
       </c>
       <c r="G7" t="n">
-        <v>-20.5706066047321</v>
+        <v>-20.5704445895034</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000503325416153713</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000505009625365304</v>
       </c>
     </row>
     <row r="8">
@@ -603,16 +603,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.000859567684823233</v>
+        <v>-0.00086337905388416</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00662060752026279</v>
+        <v>0.00662060197250828</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.129832146399325</v>
+        <v>-0.130407938352026</v>
       </c>
       <c r="H8" t="n">
-        <v>0.896699229013711</v>
+        <v>0.896243686328362</v>
       </c>
     </row>
     <row r="9">
@@ -627,16 +627,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0518706619331259</v>
+        <v>-0.051871970921312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00813827673985034</v>
+        <v>0.00813827067183961</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.37366651334589</v>
+        <v>-6.37383210917296</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000000000184561685955953</v>
+        <v>0.000000000184362411224843</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00969080570912156</v>
+        <v>-0.00969289490104535</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00650110970226514</v>
+        <v>0.00650110335326066</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.49063869907395</v>
+        <v>-1.49096151443029</v>
       </c>
       <c r="H10" t="n">
-        <v>0.136056378300541</v>
+        <v>0.135971599401389</v>
       </c>
     </row>
     <row r="11">
@@ -675,16 +675,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0206917028103062</v>
+        <v>-0.0206940814759308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00777978688842031</v>
+        <v>0.00777977724657959</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.65967475807139</v>
+        <v>-2.65998380416728</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00782161411520407</v>
+        <v>0.00781444090549518</v>
       </c>
     </row>
     <row r="12">
@@ -699,16 +699,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00204420416582433</v>
+        <v>0.0020414522317051</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00674714974310313</v>
+        <v>0.00674714275305497</v>
       </c>
       <c r="G12" t="n">
-        <v>0.302972995065641</v>
+        <v>0.302565442354213</v>
       </c>
       <c r="H12" t="n">
-        <v>0.761910441764682</v>
+        <v>0.762221053694426</v>
       </c>
     </row>
     <row r="13">
@@ -723,16 +723,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0495018344036239</v>
+        <v>0.0495011425073308</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00792190259214476</v>
+        <v>0.00792189494556699</v>
       </c>
       <c r="G13" t="n">
-        <v>6.24873050732903</v>
+        <v>6.24864919914536</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00000000041380218595098</v>
+        <v>0.00000000041401762084016</v>
       </c>
     </row>
     <row r="14">
@@ -749,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>0.116694956236444</v>
+        <v>0.116698085103477</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -769,7 +769,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00969852039252756</v>
+        <v>0.00969825493334715</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
